--- a/biology/Zoologie/Chien_de_chasse/Chien_de_chasse.xlsx
+++ b/biology/Zoologie/Chien_de_chasse/Chien_de_chasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chien de chasse est un chien qui possède des capacités naturelles, des aptitudes, pour la chasse et qui, dressé, peut être assigné à divers emplois cynégétiques.
 Il existe plusieurs sortes de chiens de chasse : (entre parenthèses la classification à la FCI)
@@ -512,7 +524,9 @@
           <t>Les terriers (groupe 3)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces chiens, généralement de petite taille, sont destinés à déloger les animaux chassés de leurs terriers, comme les renards.
 Terriers de grande taille (section 1)
@@ -574,10 +588,12 @@
           <t>Les teckels (groupe 4)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les teckels sont des chiens de chasse originaires d'Allemagne. Ils constituent une race unique avec de nombreuses variétés.
-Destiné à l'origine au déterrage, le teckel s’est progressivement imposé comme chien de chasse polyvalent[1]. En effet, il obtient
+Destiné à l'origine au déterrage, le teckel s’est progressivement imposé comme chien de chasse polyvalent. En effet, il obtient
 aussi des résultats remarquables comme leveur de gibier ou comme chien de rouge (chien de recherche au sang) et se révèle un excellent pêcheur.
 Les différentes variétés sont fonction de croisements de deux caractéristiques principales : taille et longueur du poil.
 Classement selon la taille :
@@ -615,7 +631,9 @@
           <t>Les chiens de type primitif (groupe 5)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Certains chiens de ce groupe sont considérés comme des chiens de chasse.
 Chiens nordiques (sections 1 et 2)
@@ -666,7 +684,9 @@
           <t>Les chiens courants et de recherche au sang (groupe 6)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les chiens courants (section 1)
 Le Chien d'Artois
@@ -718,7 +738,9 @@
           <t>Les chiens d'arrêt (groupe 7)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les chiens d’arrêt sont utilisés pour trouver et indiquer la présence d'un gibier, puis pour le rapporter une fois abattu.
 Continentaux (section 1)
@@ -777,7 +799,9 @@
           <t>Les chiens de rapport ou leveurs de gibier, broussailleurs et chiens d'eau (groupe 8)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les rapporteurs de gibiers (section 1)
 Le Labrador Retriever
@@ -823,7 +847,9 @@
           <t>Les Lévriers (groupe 10)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les Lévriers sont des chiens de chasse dont l'utilisation est interdite en France mais encore autorisée dans d'autres pays (Espagne, Portugal, certains pays de l'Est).
 Les Lévriers à poil long ou frangé (Section 1) :
@@ -841,7 +867,7 @@
 le Lévrier greyhound ou lévrier anglais (10/3/158) ;
 le Lévrier hongrois ou Magyar Agar (10/3/240) ;
 le Petit lévrier italien ou levrette d'Italie (10/3/200) ;
-le Lévrier whippet ou Lévrier nain[2] (10/3/162).</t>
+le Lévrier whippet ou Lévrier nain (10/3/162).</t>
         </is>
       </c>
     </row>
